--- a/tournament-20171130-002539-party_domain.xlsx
+++ b/tournament-20171130-002539-party_domain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="27675" windowHeight="12795" tabRatio="537" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="0" windowWidth="27675" windowHeight="12795" tabRatio="537" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -891,10 +891,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3275,7 +3276,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,8 +3316,8 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(AVERAGEIF(data!M:M, A2 &amp; "*", data!P:R), AVERAGEIF(data!N:N, A2 &amp; "*", data!P:R), AVERAGEIF(data!O:O, A2 &amp; "*", data!P:R))</f>
-        <v>0.7219859392962964</v>
+        <f>AVERAGE(AVERAGEIF(data!M:M, A2 &amp; "*", data!P:P), AVERAGEIF(data!N:N, A2 &amp; "*", data!Q:Q), AVERAGEIF(data!O:O, A2 &amp; "*", data!R:R))</f>
+        <v>0.62519969577777779</v>
       </c>
       <c r="C2">
         <f>AVERAGE(AVERAGEIF(data!M:M, A2 &amp; "*", data!J:J), AVERAGEIF(data!N:N, A2 &amp; "*", data!J:J), AVERAGEIF(data!O:O, A2 &amp; "*", data!J:J))</f>
@@ -3331,8 +3332,8 @@
         <v>2.0389640740740744</v>
       </c>
       <c r="G2">
-        <f>SUM(SUMIF(data!M:M, A2 &amp; "*", data!P:R), SUMIF(data!N:N, A2 &amp; "*", data!P:R), SUMIF(data!O:O, A2 &amp; "*", data!P:R))</f>
-        <v>19.493620361000001</v>
+        <f>SUM(SUMIF(data!M:M, A2 &amp; "*", data!P:P), SUMIF(data!N:N, A2 &amp; "*", data!Q:Q), SUMIF(data!O:O, A2 &amp; "*", data!R:R))</f>
+        <v>16.880391786000001</v>
       </c>
       <c r="H2">
         <f>SUM(SUMIF(data!M:M, A2 &amp; "*", data!L:L), SUMIF(data!N:N, A2 &amp; "*", data!L:L), SUMIF(data!O:O, A2 &amp; "*", data!L:L))</f>
@@ -3350,31 +3351,33 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <f>AVERAGE(AVERAGEIF(data!M:M, A3 &amp; "*", data!P:R), AVERAGEIF(data!N:N, A3 &amp; "*", data!P:R), AVERAGEIF(data!O:O, A3 &amp; "*", data!P:R))</f>
-        <v>0.75112768655555551</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <f>AVERAGE(AVERAGEIF(data!M:M, A3 &amp; "*", data!P:P), AVERAGEIF(data!N:N, A3 &amp; "*", data!Q:Q), AVERAGEIF(data!O:O, A3 &amp; "*", data!R:R))</f>
+        <v>0.69156531833333335</v>
+      </c>
+      <c r="C3" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A3 &amp; "*", data!J:J), AVERAGEIF(data!N:N, A3 &amp; "*", data!J:J), AVERAGEIF(data!O:O, A3 &amp; "*", data!J:J))</f>
         <v>1.3090740740740741E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A3 &amp; "*", data!K:K), AVERAGEIF(data!N:N, A3 &amp; "*", data!K:K), AVERAGEIF(data!O:O, A3 &amp; "*", data!K:K))</f>
         <v>0.25862296296296294</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A3 &amp; "*", data!L:L), AVERAGEIF(data!N:N, A3 &amp; "*", data!L:L), AVERAGEIF(data!O:O, A3 &amp; "*", data!L:L))</f>
         <v>2.1753992592592595</v>
       </c>
-      <c r="G3">
-        <f>SUM(SUMIF(data!M:M, A3 &amp; "*", data!P:R), SUMIF(data!N:N, A3 &amp; "*", data!P:R), SUMIF(data!O:O, A3 &amp; "*", data!P:R))</f>
-        <v>20.280447537000001</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <f>SUM(SUMIF(data!M:M, A3 &amp; "*", data!P:P), SUMIF(data!N:N, A3 &amp; "*", data!Q:Q), SUMIF(data!O:O, A3 &amp; "*", data!R:R))</f>
+        <v>18.672263595</v>
+      </c>
+      <c r="H3" s="3">
         <f>SUM(SUMIF(data!M:M, A3 &amp; "*", data!L:L), SUMIF(data!N:N, A3 &amp; "*", data!L:L), SUMIF(data!O:O, A3 &amp; "*", data!L:L))</f>
         <v>58.735780000000005</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <f>AVERAGE(AVERAGEIF(data!O:O, A3 &amp; "*", data!B:B), AVERAGEIF(data!N:N, A3 &amp; "*", data!B:B), AVERAGEIF(data!O:O, A3 &amp; "*", data!B:B))</f>
         <v>450.03703703703701</v>
       </c>
@@ -3386,67 +3389,82 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <f>AVERAGE(AVERAGEIF(data!M:M, A4 &amp; "*", data!P:R), AVERAGEIF(data!N:N, A4 &amp; "*", data!P:R), AVERAGEIF(data!O:O, A4 &amp; "*", data!P:R))</f>
-        <v>0.75922814259259264</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <f>AVERAGE(AVERAGEIF(data!M:M, A4 &amp; "*", data!P:P), AVERAGEIF(data!N:N, A4 &amp; "*", data!Q:Q), AVERAGEIF(data!O:O, A4 &amp; "*", data!R:R))</f>
+        <v>0.80957058129629633</v>
+      </c>
+      <c r="C4" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A4 &amp; "*", data!J:J), AVERAGEIF(data!N:N, A4 &amp; "*", data!J:J), AVERAGEIF(data!O:O, A4 &amp; "*", data!J:J))</f>
         <v>1.3667037037037038E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A4 &amp; "*", data!K:K), AVERAGEIF(data!N:N, A4 &amp; "*", data!K:K), AVERAGEIF(data!O:O, A4 &amp; "*", data!K:K))</f>
         <v>0.25538851851851851</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A4 &amp; "*", data!L:L), AVERAGEIF(data!N:N, A4 &amp; "*", data!L:L), AVERAGEIF(data!O:O, A4 &amp; "*", data!L:L))</f>
         <v>2.1646455555555555</v>
       </c>
-      <c r="G4">
-        <f>SUM(SUMIF(data!M:M, A4 &amp; "*", data!P:R), SUMIF(data!N:N, A4 &amp; "*", data!P:R), SUMIF(data!O:O, A4 &amp; "*", data!P:R))</f>
-        <v>20.499159849999998</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <f>SUM(SUMIF(data!M:M, A4 &amp; "*", data!P:P), SUMIF(data!N:N, A4 &amp; "*", data!Q:Q), SUMIF(data!O:O, A4 &amp; "*", data!R:R))</f>
+        <v>21.858405694999998</v>
+      </c>
+      <c r="H4" s="3">
         <f>SUM(SUMIF(data!M:M, A4 &amp; "*", data!L:L), SUMIF(data!N:N, A4 &amp; "*", data!L:L), SUMIF(data!O:O, A4 &amp; "*", data!L:L))</f>
         <v>58.445430000000002</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <f>AVERAGE(AVERAGEIF(data!O:O, A4 &amp; "*", data!B:B), AVERAGEIF(data!N:N, A4 &amp; "*", data!B:B), AVERAGEIF(data!O:O, A4 &amp; "*", data!B:B))</f>
         <v>453.03703703703701</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <f>AVERAGE(AVERAGEIF(data!M:M, A6 &amp; "*", data!P:R), AVERAGEIF(data!N:N, A6 &amp; "*", data!P:R), AVERAGEIF(data!O:O, A6 &amp; "*", data!P:R))</f>
-        <v>0.74411392281481481</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <f>AVERAGE(AVERAGEIF(data!M:M, A6 &amp; "*", data!P:P), AVERAGEIF(data!N:N, A6 &amp; "*", data!Q:Q), AVERAGEIF(data!O:O, A6 &amp; "*", data!R:R))</f>
+        <v>0.70877853180246919</v>
+      </c>
+      <c r="C6" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A6 &amp; "*", data!J:J), AVERAGEIF(data!N:N, A6 &amp; "*", data!J:J), AVERAGEIF(data!O:O, A6 &amp; "*", data!J:J))</f>
         <v>3.387037037037037E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A6 &amp; "*", data!K:K), AVERAGEIF(data!N:N, A6 &amp; "*", data!K:K), AVERAGEIF(data!O:O, A6 &amp; "*", data!K:K))</f>
         <v>0.27434111111111109</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f>AVERAGE(AVERAGEIF(data!M:M, A6 &amp; "*", data!L:L), AVERAGEIF(data!N:N, A6 &amp; "*", data!L:L), AVERAGEIF(data!O:O, A6 &amp; "*", data!L:L))</f>
         <v>2.1263362962962962</v>
       </c>
-      <c r="G6">
-        <f>SUM(SUMIF(data!M:M, A6 &amp; "*", data!P:R), SUMIF(data!N:N, A6 &amp; "*", data!P:R), SUMIF(data!O:O, A6 &amp; "*", data!P:R))</f>
-        <v>60.273227748000004</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f>SUM(SUMIF(data!M:M, A6 &amp; "*", data!P:P), SUMIF(data!N:N, A6 &amp; "*", data!Q:Q), SUMIF(data!O:O, A6 &amp; "*", data!R:R))</f>
+        <v>57.41106107600001</v>
+      </c>
+      <c r="H6" s="3">
         <f>SUM(SUMIF(data!M:M, A6 &amp; "*", data!L:L), SUMIF(data!N:N, A6 &amp; "*", data!L:L), SUMIF(data!O:O, A6 &amp; "*", data!L:L))</f>
         <v>172.23324</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <f>AVERAGE(AVERAGEIF(data!O:O, A6 &amp; "*", data!B:B), AVERAGEIF(data!N:N, A6 &amp; "*", data!B:B), AVERAGEIF(data!O:O, A6 &amp; "*", data!B:B))</f>
         <v>452.44444444444451</v>
       </c>
@@ -3455,7 +3473,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -3467,7 +3485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C6">
+  <conditionalFormatting sqref="C2:C5">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -3479,7 +3497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -3491,7 +3509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
+  <conditionalFormatting sqref="E2:E5">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
